--- a/students.xlsx
+++ b/students.xlsx
@@ -708,12 +708,12 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>2024-07-15 17:05</t>
+          <t>2024-07-24 08:00</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>2024-07-15 17:05</t>
+          <t>2024-07-24 22:00</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">

--- a/students.xlsx
+++ b/students.xlsx
@@ -600,12 +600,12 @@
       </c>
       <c r="C2" s="10" t="inlineStr">
         <is>
-          <t>2024-07-18 20:29</t>
+          <t>2024-07-24 01:20</t>
         </is>
       </c>
       <c r="D2" s="11" t="inlineStr">
         <is>
-          <t>2024-07-22 20:29</t>
+          <t>2024-07-26 01:20</t>
         </is>
       </c>
       <c r="E2" s="12" t="inlineStr">
@@ -708,12 +708,12 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>2024-07-24 08:00</t>
+          <t>2024-07-25 08:30</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>2024-07-24 22:00</t>
+          <t>2024-07-25 21:00</t>
         </is>
       </c>
       <c r="E6" s="7" t="inlineStr">
